--- a/biology/Histoire de la zoologie et de la botanique/Floyd_Alonso_McClure/Floyd_Alonso_McClure.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Floyd_Alonso_McClure/Floyd_Alonso_McClure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Floyd Alonso McClure (1897-1970) est un botaniste américain qui a consacré sa vie entière à l'étude des bambous.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Floyd Alonzo McClure est né dans le comté de Shelby dans l'Ohio (États-Unis) et a poursuivi ses études à l'université d'État de l'Ohio.
 Il est ensuite parti comme enseignant en Chine, où il séjourna pendant 24 ans.
 Il y travailla comme professeur de botanique économique à l'université Lingnan à Canton.
 Lorsque les Japonais envahirent la Chine, Floyd Alonzo McClure retourna aux États-Unis et devint consultant sur les bambous pour le compte du Département de l'Agriculture des États-Unis.
-Dans les années 1940, il fut nommé chercheur honoraire associé au National Museum of Natural History (Musée national d'histoire naturelle), fonction qu'il exerça jusqu'à sa mort en 1970[1].
+Dans les années 1940, il fut nommé chercheur honoraire associé au National Museum of Natural History (Musée national d'histoire naturelle), fonction qu'il exerça jusqu'à sa mort en 1970.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Sélection bibliographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bamboos of the genus Phyllostachys under cultivation in the United States, 1957, U.S. Dept. of Agriculture, Agricultural Research Service (Washington, D.C), Agriculture handbook / United States Department of Agriculture ; no. 114, Agriculture handbook (United States. Dept. of Agriculture), no. 114.ii, 69 p.</t>
         </is>
